--- a/easyexcel-operation/src/test/resources/annotation/userList.xlsx
+++ b/easyexcel-operation/src/test/resources/annotation/userList.xlsx
@@ -146,10 +146,10 @@
         <v>18.0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>44864.70885148148</v>
+        <v>44871.84155673611</v>
       </c>
     </row>
     <row r="3" customHeight="true" ht="30.0">
@@ -162,10 +162,10 @@
         <v>19.0</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>44864.70885148148</v>
+        <v>44871.84155673611</v>
       </c>
     </row>
     <row r="4" customHeight="true" ht="30.0">
@@ -178,10 +178,10 @@
         <v>20.0</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>44864.70885148148</v>
+        <v>44871.84155673611</v>
       </c>
     </row>
     <row r="5" customHeight="true" ht="30.0">
@@ -194,10 +194,10 @@
         <v>21.0</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>44864.70885148148</v>
+        <v>44871.84155673611</v>
       </c>
     </row>
     <row r="6" customHeight="true" ht="30.0">
@@ -213,7 +213,7 @@
         <v>1.0</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>44864.70885148148</v>
+        <v>44871.84155673611</v>
       </c>
     </row>
     <row r="7" customHeight="true" ht="30.0">
@@ -229,7 +229,7 @@
         <v>0.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>44864.70885148148</v>
+        <v>44871.84155673611</v>
       </c>
     </row>
     <row r="8" customHeight="true" ht="30.0">
@@ -245,7 +245,7 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>44864.70885148148</v>
+        <v>44871.84155673611</v>
       </c>
     </row>
     <row r="9" customHeight="true" ht="30.0">
@@ -258,10 +258,10 @@
         <v>25.0</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>44864.70885148148</v>
+        <v>44871.84155673611</v>
       </c>
     </row>
     <row r="10" customHeight="true" ht="30.0">
@@ -274,10 +274,10 @@
         <v>26.0</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>44864.70885148148</v>
+        <v>44871.84155673611</v>
       </c>
     </row>
     <row r="11" customHeight="true" ht="30.0">
@@ -293,7 +293,7 @@
         <v>1.0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>44864.70885148148</v>
+        <v>44871.84155673611</v>
       </c>
     </row>
   </sheetData>
